--- a/medicine/Enfance/Colin_Dann/Colin_Dann.xlsx
+++ b/medicine/Enfance/Colin_Dann/Colin_Dann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colin Dann (né le 10 mars 1943) est un auteur anglais[1]. Il est surtout connu pour sa série de livres The Animals of Farthing Wood, soit Les Animaux du Bois de Quat'sous qui a ensuite été transformée en une série animée en 1992[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin Dann (né le 10 mars 1943) est un auteur anglais. Il est surtout connu pour sa série de livres The Animals of Farthing Wood, soit Les Animaux du Bois de Quat'sous qui a ensuite été transformée en une série animée en 1992.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dann a travaillé à la maison d'édition William Collins, Sons &amp; Co. pendant treize ans, et son premier roman, Les animaux de Farthing Wood, a été écrit pendant cette période. La couverture originale de celui-ci et d'une douzaine d'autres a été peinte par l'artiste Portal Frances Broomfield.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Farthing Wood series
 The Animals of Farthing Wood (1979)
